--- a/9_JANUARY_2019_nafar_bill.pdfcp.xlsx
+++ b/9_JANUARY_2019_nafar_bill.pdfcp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t xml:space="preserve">Historique Des Operations </t>
   </si>
@@ -20,10 +20,10 @@
     <t>Période : de 2019-01-01 à 2019-01-30   (29 Jours )</t>
   </si>
   <si>
-    <t>CIN                  :  id84901</t>
-  </si>
-  <si>
-    <t>Nom Complet    : nafar bill</t>
+    <t>CIN                   :   id84901</t>
+  </si>
+  <si>
+    <t>Nom Complet    :  nafar bill</t>
   </si>
   <si>
     <t>date</t>
@@ -53,18 +53,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>2019-01-09 13:04:51</t>
   </si>
   <si>
     <t>ihihi</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2019-01-08 22:05:27</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
   </si>
   <si>
     <t>opera</t>
-  </si>
-  <si>
-    <t>152</t>
   </si>
 </sst>
 </file>
@@ -329,30 +320,30 @@
       <c r="G16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="H16" t="s" s="6">
-        <v>13</v>
+      <c r="H16" t="n" s="6">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E17" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s" s="5">
-        <v>15</v>
-      </c>
       <c r="G17" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="H17" t="s" s="5">
-        <v>16</v>
+      <c r="H17" t="n" s="5">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="s" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s" s="6">
         <v>10</v>
@@ -363,110 +354,110 @@
       <c r="G18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="H18" t="s" s="6">
-        <v>13</v>
+      <c r="H18" t="n" s="6">
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="s" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s" s="5">
         <v>10</v>
       </c>
       <c r="F19" t="s" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="H19" t="s" s="5">
-        <v>13</v>
+      <c r="H19" t="n" s="5">
+        <v>12.0</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="s" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s" s="6">
         <v>10</v>
       </c>
       <c r="F20" t="s" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="H20" t="s" s="6">
-        <v>13</v>
+      <c r="H20" t="n" s="6">
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="s" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="5">
         <v>10</v>
       </c>
       <c r="F21" t="s" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s" s="5">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H21" t="n" s="5">
+        <v>12.0</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="s" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>10</v>
       </c>
       <c r="F22" t="s" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s" s="6">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="H22" t="n" s="6">
+        <v>12.0</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="s" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s" s="5">
         <v>10</v>
       </c>
       <c r="F23" t="s" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="H23" t="s" s="5">
-        <v>13</v>
+      <c r="H23" t="n" s="5">
+        <v>12.0</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="s" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s" s="6">
         <v>10</v>
       </c>
       <c r="F24" t="s" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="H24" t="s" s="6">
-        <v>28</v>
+      <c r="H24" t="n" s="6">
+        <v>152.0</v>
       </c>
     </row>
   </sheetData>
